--- a/k_prediction/data_preprocessing/ppp.xlsx
+++ b/k_prediction/data_preprocessing/ppp.xlsx
@@ -27,9 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>μ</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>u</t>
   </si>
   <si>
     <t>EB3LYP</t>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>sdz</t>
+  </si>
+  <si>
+    <t>pct</t>
   </si>
 </sst>
 </file>
@@ -1311,10 +1314,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72566371681416" defaultRowHeight="14.3"/>
@@ -2163,6 +2166,50 @@
         <v>0.08</v>
       </c>
     </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2.2954</v>
+      </c>
+      <c r="C20" s="1">
+        <v>-22407.741</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-5.854473861</v>
+      </c>
+      <c r="E20" s="1">
+        <v>-0.537770993</v>
+      </c>
+      <c r="F20" s="4">
+        <v>-6.392244854</v>
+      </c>
+      <c r="G20" s="4">
+        <v>5.316702868</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.436619718309859</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2.98387096774194</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.279</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1.8128</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.119</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0.106</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.086</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
